--- a/data/trans_dic/IP16B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B01-Habitat-trans_dic.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -637,42 +637,42 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>70,28%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>61,46%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>71,85%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>84,22%</t>
+          <t>91,13%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>67,62%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>0; 26,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>86,78; 100,0</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>78,35; 97,6</t>
+          <t>0,0; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>0; 14,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,01; 83,41</t>
+          <t>76,75; 100</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>78,25; 97,69</t>
+          <t>15,5; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,28</t>
+          <t>0; 9,99</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>72,98; 91,48</t>
+          <t>61,03; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>83,81; 96,14</t>
+          <t>29,24; 100,0</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -857,42 +857,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>91,6%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>86,7%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>85,74%</t>
+          <t>71,88%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>76,45%</t>
+          <t>92,06%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>91,19%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>0; 3,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>77,55; 97,76</t>
+          <t>86,78; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>67,57; 96,22</t>
+          <t>78,35; 97,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0,0; 9,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>71,19; 94,75</t>
+          <t>53,01; 83,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>55,47; 89,12</t>
+          <t>78,25; 97,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>79,67; 94,56</t>
+          <t>72,98; 91,48</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>67,61; 89,82</t>
+          <t>83,81; 96,14</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>70,28%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>61,46%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>73,3%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>71,85%</t>
+          <t>76,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -997,12 +997,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>84,44%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0; 3,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>85,04; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>76,51; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0; 4,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>56,41; 85,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,5; 100,0</t>
+          <t>59,47; 90,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0; 1,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>61,03; 100,0</t>
+          <t>75,15; 92,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,24; 100,0</t>
+          <t>72,62; 92,35</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1077,12 +1077,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>86,7%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1092,12 +1092,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>73,3%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>76,68%</t>
+          <t>76,45%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1107,12 +1107,12 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>88,66%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>84,44%</t>
+          <t>81,32%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0; 3,36</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>85,04; 100,0</t>
+          <t>77,55; 97,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>76,51; 100,0</t>
+          <t>67,57; 96,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>0; 5,45</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>56,41; 85,56</t>
+          <t>71,19; 94,75</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>59,47; 90,1</t>
+          <t>55,47; 89,12</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>0; 2,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>75,15; 92,33</t>
+          <t>79,67; 94,56</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>72,62; 92,35</t>
+          <t>67,61; 89,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B01-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>61,03; 100,0</t>
+          <t>52,81; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>29,24; 100,0</t>
+          <t>23,74; 100,0</t>
         </is>
       </c>
     </row>
@@ -800,42 +800,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,39; 100,0</t>
+          <t>77,1; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,26; 100,0</t>
+          <t>53,31; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,79</t>
+          <t>0,0; 12,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,33; 100,0</t>
+          <t>81,78; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>50,98; 94,38</t>
+          <t>51,78; 94,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,52</t>
+          <t>0,0; 7,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>83,99; 98,06</t>
+          <t>85,79; 98,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>59,11; 92,39</t>
+          <t>61,64; 92,38</t>
         </is>
       </c>
     </row>
@@ -910,42 +910,42 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>86,78; 100,0</t>
+          <t>87,08; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,35; 97,6</t>
+          <t>78,23; 97,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,37</t>
+          <t>0,0; 9,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>53,01; 83,41</t>
+          <t>56,43; 85,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,25; 97,69</t>
+          <t>78,88; 97,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,28</t>
+          <t>0,0; 4,16</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,98; 91,48</t>
+          <t>73,9; 91,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,81; 96,14</t>
+          <t>83,66; 96,34</t>
         </is>
       </c>
     </row>
@@ -1020,12 +1020,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>85,04; 100,0</t>
+          <t>82,77; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,51; 100,0</t>
+          <t>74,26; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>56,41; 85,56</t>
+          <t>55,31; 85,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,47; 90,1</t>
+          <t>58,44; 89,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,15; 92,33</t>
+          <t>76,61; 92,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,62; 92,35</t>
+          <t>72,1; 92,55</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,55; 97,76</t>
+          <t>79,54; 97,91</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>67,57; 96,22</t>
+          <t>66,14; 96,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>71,19; 94,75</t>
+          <t>71,4; 94,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,47; 89,12</t>
+          <t>55,61; 91,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>79,67; 94,56</t>
+          <t>80,13; 94,75</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>67,61; 89,82</t>
+          <t>66,92; 89,65</t>
         </is>
       </c>
     </row>
@@ -1240,42 +1240,49 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>87,87; 96,99</t>
+          <t>88,29; 96,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,16; 93,98</t>
+          <t>80,65; 93,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,51</t>
+          <t>0,0; 4,39</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,19; 88,06</t>
+          <t>75,31; 88,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,73; 88,63</t>
+          <t>73,2; 88,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,77</t>
+          <t>0,0; 1,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,68; 91,27</t>
+          <t>83,75; 91,39</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>80,18; 89,58</t>
+          <t>79,29; 88,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B01-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -720,19 +720,19 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,81; 100,0</t>
+          <t>57,61; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,74; 100,0</t>
+          <t>23,99; 100,0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -800,49 +800,49 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>77,1; 100,0</t>
+          <t>76,73; 100,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,31; 100,0</t>
+          <t>46,46; 100,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 12,46</t>
+          <t>0,0; 15,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>81,78; 100,0</t>
+          <t>79,48; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,78; 94,58</t>
+          <t>52,18; 94,56</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,51</t>
+          <t>0,0; 7,01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>85,79; 98,08</t>
+          <t>84,14; 98,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>61,64; 92,38</t>
+          <t>62,63; 93,86</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,49 +910,49 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>87,08; 100,0</t>
+          <t>88,65; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>78,23; 97,57</t>
+          <t>77,9; 95,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,26</t>
+          <t>0,0; 7,75</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>56,43; 85,64</t>
+          <t>54,84; 83,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>78,88; 97,71</t>
+          <t>79,15; 97,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,16</t>
+          <t>0,0; 4,31</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>73,9; 91,37</t>
+          <t>73,99; 91,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,66; 96,34</t>
+          <t>83,21; 96,2</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1020,12 +1020,12 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>82,77; 100,0</t>
+          <t>84,6; 100,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>74,26; 100,0</t>
+          <t>76,78; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,31; 85,94</t>
+          <t>57,04; 87,41</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,44; 89,72</t>
+          <t>58,17; 89,76</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1050,12 +1050,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>76,61; 92,21</t>
+          <t>74,77; 92,09</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>72,1; 92,55</t>
+          <t>71,84; 92,31</t>
         </is>
       </c>
     </row>
@@ -1130,12 +1130,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>79,54; 97,91</t>
+          <t>77,05; 97,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>66,14; 96,2</t>
+          <t>67,21; 96,22</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1145,12 +1145,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>71,4; 94,61</t>
+          <t>69,67; 94,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>55,61; 91,64</t>
+          <t>56,12; 88,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1160,12 +1160,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,13; 94,75</t>
+          <t>80,41; 95,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66,92; 89,65</t>
+          <t>67,1; 89,8</t>
         </is>
       </c>
     </row>
@@ -1240,42 +1240,42 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>88,29; 96,69</t>
+          <t>87,91; 97,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>80,65; 93,66</t>
+          <t>80,36; 93,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,39</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>75,31; 88,51</t>
+          <t>75,4; 87,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>73,2; 88,58</t>
+          <t>73,93; 88,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,64</t>
+          <t>0,0; 1,75</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>83,75; 91,39</t>
+          <t>83,19; 91,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>79,29; 88,73</t>
+          <t>79,13; 88,88</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP16B01-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/IP16B01-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,15%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>96,96%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>77,17%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>70,28%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>61,46%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>71,85%</t>
+          <t>77,05%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>91,13%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>67,62%</t>
+          <t>77,12%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>0,0; 12,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>84,55; 100,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 100,0</t>
+          <t>52,94; 93,14</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 14,51</t>
+          <t>0; 4,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>76,75; 100</t>
+          <t>75,11; 96,78</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 100,0</t>
+          <t>46,92; 93,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 9,99</t>
+          <t>0,0; 6,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>57,61; 100,0</t>
+          <t>83,65; 98,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>23,99; 100,0</t>
+          <t>58,85; 89,83</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,54%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>71,88%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>92,06%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>92,37%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>81,95%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,06%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>97,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>78,99%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,5%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>94,03%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>80,26%</t>
+          <t>91,19%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>0,0; 9,37</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>76,73; 100,0</t>
+          <t>53,01; 83,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>46,46; 100,0</t>
+          <t>78,25; 97,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 15,96</t>
+          <t>0; 3,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>79,48; 100,0</t>
+          <t>86,78; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>52,18; 94,56</t>
+          <t>78,35; 97,6</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,01</t>
+          <t>0,0; 4,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>84,14; 98,08</t>
+          <t>72,98; 91,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>62,63; 93,86</t>
+          <t>83,81; 96,14</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -857,42 +857,42 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>97,46%</t>
+          <t>73,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>76,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>71,88%</t>
+          <t>95,19%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,06%</t>
+          <t>95,14%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>84,22%</t>
+          <t>85,32%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>91,19%</t>
+          <t>84,44%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,04</t>
+          <t>0; 4,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>88,65; 100,0</t>
+          <t>56,41; 85,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,9; 95,4</t>
+          <t>59,47; 90,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,75</t>
+          <t>0; 3,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>54,84; 83,46</t>
+          <t>85,04; 100,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>79,15; 97,7</t>
+          <t>76,51; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,31</t>
+          <t>0; 1,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>73,99; 91,56</t>
+          <t>75,15; 92,33</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>83,21; 96,2</t>
+          <t>72,62; 92,35</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -967,12 +967,12 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>95,19%</t>
+          <t>85,74%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>76,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -982,12 +982,12 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>73,3%</t>
+          <t>91,6%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,68%</t>
+          <t>86,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -997,12 +997,12 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>88,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>84,44%</t>
+          <t>81,32%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>0; 5,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>84,6; 100,0</t>
+          <t>71,19; 94,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>76,78; 100,0</t>
+          <t>55,47; 89,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>0; 3,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>57,04; 87,41</t>
+          <t>77,55; 97,76</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>58,17; 89,76</t>
+          <t>67,57; 96,22</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>0; 2,11</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>74,77; 92,09</t>
+          <t>79,67; 94,56</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>71,84; 92,31</t>
+          <t>67,61; 89,82</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>1,08%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>82,35%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>81,71%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>91,6%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>86,7%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>85,74%</t>
+          <t>93,44%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>76,45%</t>
+          <t>88,32%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,5%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>87,91%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>81,32%</t>
+          <t>84,79%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>0,0; 3,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>77,05; 97,7</t>
+          <t>75,19; 88,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>67,21; 96,22</t>
+          <t>73,73; 88,63</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 5,45</t>
+          <t>0; 0,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>69,67; 94,66</t>
+          <t>87,87; 96,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>56,12; 88,98</t>
+          <t>81,16; 93,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>0,0; 1,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>80,41; 95,0</t>
+          <t>83,68; 91,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>67,1; 89,8</t>
+          <t>80,18; 89,58</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>93,44%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>88,32%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>1,08%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>82,35%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>81,71%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,5%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>87,91%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>84,79%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0; 0,89</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>87,91; 97,08</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>80,36; 93,73</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 4,65</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>75,4; 87,8</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>73,93; 88,61</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 1,75</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>83,19; 91,47</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>79,13; 88,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
